--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="158">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,21 +43,21 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>useless</t>
-  </si>
-  <si>
     <t>stopped</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
@@ -70,9 +70,6 @@
     <t>waste</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -88,27 +85,24 @@
     <t>love</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>favorite</t>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>beautiful</t>
   </si>
   <si>
     <t>beautifully</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>recipes</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -118,19 +112,58 @@
     <t>perfect</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>apples</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>wedding</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>kids</t>
@@ -139,328 +172,295 @@
     <t>family</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
+    <t>everyday</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>bun</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>everyday</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>cream</t>
   </si>
   <si>
     <t>cooks</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>decor</t>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>nicely</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>ze</t>
+    <t>years</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>baking</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>dough</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
     <t>fan</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>exactly</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>w</t>
   </si>
   <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>maker</t>
   </si>
   <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
     <t>makes</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>far</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>make</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>pot</t>
   </si>
   <si>
     <t>food</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>coffee</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>easily</t>
   </si>
   <si>
     <t>big</t>
   </si>
   <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>job</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>got</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
-    <t>easily</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t>used</t>
   </si>
   <si>
     <t>handle</t>
@@ -469,16 +469,19 @@
     <t>buy</t>
   </si>
   <si>
-    <t>used</t>
+    <t>use</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>use</t>
+    <t>work</t>
   </si>
   <si>
     <t>product</t>
@@ -842,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q138"/>
+  <dimension ref="A1:Q140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -850,10 +853,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -932,16 +935,16 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9655172413793104</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -953,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -961,13 +964,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6666666666666666</v>
+        <v>0.675</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -979,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.946236559139785</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L4">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M4">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1003,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1011,13 +1014,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1029,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.921875</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1053,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1061,37 +1064,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4150943396226415</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>31</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K6">
-        <v>0.8637770897832817</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L6">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M6">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1103,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1111,13 +1114,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4141414141414141</v>
+        <v>0.4263565891472868</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1129,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.855072463768116</v>
+        <v>0.85</v>
       </c>
       <c r="L7">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1153,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1161,13 +1164,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3643410852713178</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1179,19 +1182,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.85</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1203,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1232,16 +1235,16 @@
         <v>35</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8421052631578947</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1253,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1261,13 +1264,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2692307692307692</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1279,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10">
         <v>0.8260869565217391</v>
@@ -1311,13 +1314,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1513513513513514</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1329,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8076923076923077</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1353,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1361,13 +1364,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1271186440677966</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1379,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K12">
         <v>0.7894736842105263</v>
@@ -1407,41 +1410,17 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.08762886597938144</v>
-      </c>
-      <c r="C13">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>0.06</v>
-      </c>
-      <c r="F13">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>177</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.7727272727272727</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1458,16 +1437,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.7555555555555555</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1479,21 +1458,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7402597402597403</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="L15">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="M15">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1505,21 +1484,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.6915254237288135</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L16">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="M16">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1531,15 +1510,15 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.6901408450704225</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L17">
         <v>49</v>
@@ -1557,21 +1536,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.6753246753246753</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L18">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M18">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1583,21 +1562,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.6712328767123288</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1609,21 +1588,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.6420545746388443</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>800</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>800</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1635,21 +1614,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1661,21 +1640,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6530612244897959</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1687,21 +1666,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23">
+        <v>0.625</v>
+      </c>
+      <c r="L23">
         <v>40</v>
       </c>
-      <c r="K23">
-        <v>0.6461538461538462</v>
-      </c>
-      <c r="L23">
-        <v>42</v>
-      </c>
       <c r="M23">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1713,21 +1692,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.6420545746388443</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L24">
-        <v>800</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>800</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1739,21 +1718,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>446</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.6285714285714286</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L25">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1765,21 +1744,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.6285714285714286</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L26">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1791,21 +1770,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.6285714285714286</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1817,21 +1796,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.6274509803921569</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1843,21 +1822,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.625</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1869,15 +1848,15 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.6176470588235294</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L30">
         <v>42</v>
@@ -1895,21 +1874,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.609375</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1921,21 +1900,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.6060606060606061</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1947,21 +1926,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.5897435897435898</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L33">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="M33">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1973,21 +1952,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.5897435897435898</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1999,21 +1978,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.5769230769230769</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2025,21 +2004,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.5714285714285714</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2051,21 +2030,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.562874251497006</v>
+        <v>0.55</v>
       </c>
       <c r="L37">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2077,21 +2056,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>73</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.5526315789473685</v>
+        <v>0.53</v>
       </c>
       <c r="L38">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M38">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2103,21 +2082,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.5384615384615384</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L39">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2129,21 +2108,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.5384615384615384</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L40">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2155,21 +2134,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.5172413793103449</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2181,21 +2160,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.5138888888888888</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L42">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2207,21 +2186,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.4897959183673469</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2233,21 +2212,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.4878048780487805</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2259,21 +2238,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.4838709677419355</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L45">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M45">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2285,21 +2264,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K46">
-        <v>0.4819277108433735</v>
+        <v>0.5</v>
       </c>
       <c r="L46">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2311,21 +2290,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K47">
-        <v>0.4769230769230769</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="L47">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="M47">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2337,21 +2316,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K48">
-        <v>0.47</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L48">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2363,15 +2342,15 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K49">
-        <v>0.4358974358974359</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="L49">
         <v>17</v>
@@ -2389,21 +2368,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K50">
-        <v>0.4285714285714285</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2415,21 +2394,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K51">
-        <v>0.4285714285714285</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L51">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M51">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2441,21 +2420,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K52">
-        <v>0.427710843373494</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L52">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M52">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2467,21 +2446,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K53">
-        <v>0.4262295081967213</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L53">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M53">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2498,16 +2477,16 @@
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K54">
-        <v>0.425</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2524,16 +2503,16 @@
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K55">
-        <v>0.4210526315789473</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L55">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="M55">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2545,21 +2524,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K56">
-        <v>0.4197530864197531</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L56">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M56">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2571,21 +2550,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K57">
-        <v>0.4</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2597,21 +2576,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K58">
-        <v>0.3970588235294117</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="L58">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2623,21 +2602,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K59">
-        <v>0.3947368421052632</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2649,21 +2628,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K60">
-        <v>0.3897058823529412</v>
+        <v>0.3946078431372549</v>
       </c>
       <c r="L60">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M60">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2675,21 +2654,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K61">
-        <v>0.3813229571984436</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L61">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="M61">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2701,21 +2680,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>159</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K62">
-        <v>0.381294964028777</v>
+        <v>0.3891050583657588</v>
       </c>
       <c r="L62">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="M62">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2727,21 +2706,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>86</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K63">
-        <v>0.3695652173913043</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L63">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M63">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2758,16 +2737,16 @@
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K64">
-        <v>0.3684210526315789</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L64">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M64">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2779,21 +2758,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K65">
-        <v>0.363013698630137</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L65">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="M65">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2805,21 +2784,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>465</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K66">
-        <v>0.3603603603603603</v>
+        <v>0.363013698630137</v>
       </c>
       <c r="L66">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="M66">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2831,21 +2810,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>71</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K67">
-        <v>0.3492063492063492</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L67">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M67">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2857,21 +2836,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K68">
-        <v>0.3478260869565217</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L68">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="M68">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2883,21 +2862,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K69">
-        <v>0.3454545454545455</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L69">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M69">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2909,15 +2888,15 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K70">
-        <v>0.3404255319148936</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L70">
         <v>16</v>
@@ -2935,21 +2914,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K71">
-        <v>0.3383458646616541</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="L71">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M71">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2961,21 +2940,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>88</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K72">
-        <v>0.3168316831683168</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="L72">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M72">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2987,21 +2966,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K73">
-        <v>0.3095238095238095</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L73">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M73">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3013,21 +2992,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K74">
-        <v>0.287037037037037</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L74">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M74">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3039,21 +3018,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K75">
-        <v>0.2822966507177033</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L75">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M75">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3065,21 +3044,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K76">
-        <v>0.2781456953642384</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L76">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M76">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3091,21 +3070,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K77">
-        <v>0.2777777777777778</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L77">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M77">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3117,21 +3096,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>52</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K78">
-        <v>0.2702702702702703</v>
+        <v>0.2658772874058127</v>
       </c>
       <c r="L78">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="M78">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3143,21 +3122,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>81</v>
+        <v>682</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K79">
-        <v>0.2626480086114101</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="L79">
-        <v>244</v>
+        <v>39</v>
       </c>
       <c r="M79">
-        <v>244</v>
+        <v>39</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3169,73 +3148,73 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>685</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K80">
-        <v>0.2615384615384616</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="L80">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M80">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K81">
-        <v>0.2589285714285715</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L81">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M81">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N81">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K82">
-        <v>0.2588235294117647</v>
+        <v>0.25</v>
       </c>
       <c r="L82">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M82">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3247,21 +3226,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K83">
         <v>0.25</v>
       </c>
       <c r="L83">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M83">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3273,21 +3252,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K84">
-        <v>0.25</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="L84">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M84">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3299,21 +3278,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K85">
-        <v>0.2424242424242424</v>
+        <v>0.234375</v>
       </c>
       <c r="L85">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M85">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3325,21 +3304,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K86">
-        <v>0.2416107382550336</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L86">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="M86">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3351,21 +3330,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>113</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K87">
-        <v>0.2368421052631579</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="L87">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M87">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3377,21 +3356,21 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K88">
-        <v>0.2291390728476821</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L88">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="M88">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3403,21 +3382,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>582</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K89">
-        <v>0.2289002557544757</v>
+        <v>0.2198675496688742</v>
       </c>
       <c r="L89">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="M89">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3429,47 +3408,47 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>603</v>
+        <v>589</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K90">
-        <v>0.2241379310344828</v>
+        <v>0.2186700767263427</v>
       </c>
       <c r="L90">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="M90">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="N90">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>90</v>
+        <v>611</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K91">
-        <v>0.2235294117647059</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="L91">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M91">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3481,21 +3460,21 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K92">
-        <v>0.2168674698795181</v>
+        <v>0.2037617554858934</v>
       </c>
       <c r="L92">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="M92">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3507,73 +3486,73 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>65</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K93">
-        <v>0.2095238095238095</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="L93">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="M93">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>83</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K94">
-        <v>0.2065217391304348</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="L94">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="M94">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="N94">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>292</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K95">
-        <v>0.2065217391304348</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L95">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M95">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3585,21 +3564,21 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>73</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K96">
-        <v>0.2018348623853211</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="L96">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M96">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3611,47 +3590,47 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K97">
-        <v>0.1949685534591195</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L97">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="M97">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="N97">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>256</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K98">
-        <v>0.1948051948051948</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="L98">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M98">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3663,21 +3642,21 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K99">
-        <v>0.19</v>
+        <v>0.1773399014778325</v>
       </c>
       <c r="L99">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M99">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3689,47 +3668,47 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>81</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K100">
-        <v>0.1895910780669145</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L100">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="M100">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="N100">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O100">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>218</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K101">
-        <v>0.1890243902439024</v>
+        <v>0.1734317343173432</v>
       </c>
       <c r="L101">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M101">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3741,15 +3720,15 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>133</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K102">
-        <v>0.1827956989247312</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="L102">
         <v>17</v>
@@ -3767,21 +3746,21 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K103">
-        <v>0.1822660098522167</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L103">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M103">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3793,21 +3772,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>166</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K104">
-        <v>0.1807909604519774</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="L104">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M104">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3819,21 +3798,21 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>145</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K105">
-        <v>0.1740740740740741</v>
+        <v>0.1646778042959427</v>
       </c>
       <c r="L105">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="M105">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3845,21 +3824,21 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>223</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K106">
-        <v>0.1666666666666667</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="L106">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="M106">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3871,21 +3850,21 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>105</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K107">
-        <v>0.1644736842105263</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="L107">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="M107">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3897,21 +3876,21 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>381</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K108">
-        <v>0.1639344262295082</v>
+        <v>0.1533742331288344</v>
       </c>
       <c r="L108">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M108">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3923,21 +3902,21 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>102</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K109">
-        <v>0.1616161616161616</v>
+        <v>0.1518518518518518</v>
       </c>
       <c r="L109">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M109">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3949,21 +3928,21 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>83</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K110">
-        <v>0.1615384615384615</v>
+        <v>0.15</v>
       </c>
       <c r="L110">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="M110">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3975,21 +3954,21 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>109</v>
+        <v>374</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K111">
-        <v>0.1545454545454545</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="L111">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="M111">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -4001,15 +3980,15 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>372</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K112">
-        <v>0.1515151515151515</v>
+        <v>0.1412429378531073</v>
       </c>
       <c r="L112">
         <v>25</v>
@@ -4027,21 +4006,21 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K113">
-        <v>0.1472868217054264</v>
+        <v>0.1411192214111922</v>
       </c>
       <c r="L113">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="M113">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -4053,21 +4032,21 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>110</v>
+        <v>353</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K114">
-        <v>0.1455847255369928</v>
+        <v>0.138655462184874</v>
       </c>
       <c r="L114">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="M114">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -4079,47 +4058,47 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>358</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K115">
-        <v>0.1411042944785276</v>
+        <v>0.1381578947368421</v>
       </c>
       <c r="L115">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M115">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O115">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q115">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K116">
-        <v>0.1372549019607843</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="L116">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M116">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -4131,21 +4110,21 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K117">
-        <v>0.134020618556701</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="L117">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M117">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -4157,47 +4136,47 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K118">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="L118">
+        <v>18</v>
+      </c>
+      <c r="M118">
+        <v>18</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q118">
         <v>135</v>
-      </c>
-      <c r="K118">
-        <v>0.1313868613138686</v>
-      </c>
-      <c r="L118">
-        <v>54</v>
-      </c>
-      <c r="M118">
-        <v>54</v>
-      </c>
-      <c r="N118">
-        <v>1</v>
-      </c>
-      <c r="O118">
-        <v>0</v>
-      </c>
-      <c r="P118" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <v>357</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K119">
-        <v>0.1260504201680672</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L119">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M119">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -4209,21 +4188,21 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>208</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K120">
-        <v>0.125</v>
+        <v>0.1148648648648649</v>
       </c>
       <c r="L120">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M120">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -4235,21 +4214,21 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>182</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K121">
-        <v>0.1176470588235294</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="L121">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M121">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -4261,21 +4240,21 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K122">
-        <v>0.1169354838709677</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="L122">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M122">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -4287,21 +4266,21 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>219</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K123">
-        <v>0.1153846153846154</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="L123">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M123">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -4313,47 +4292,47 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>138</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K124">
-        <v>0.1048951048951049</v>
+        <v>0.10625</v>
       </c>
       <c r="L124">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M124">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N124">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O124">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="10:17">
       <c r="J125" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K125">
-        <v>0.09836065573770492</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="L125">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M125">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -4365,47 +4344,47 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>330</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="10:17">
       <c r="J126" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K126">
-        <v>0.09740259740259741</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="L126">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M126">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N126">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O126">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q126">
-        <v>139</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="10:17">
       <c r="J127" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K127">
-        <v>0.09558823529411764</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="L127">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M127">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -4417,151 +4396,151 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>246</v>
+        <v>332</v>
       </c>
     </row>
     <row r="128" spans="10:17">
       <c r="J128" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K128">
-        <v>0.09260991580916744</v>
+        <v>0.08776978417266187</v>
       </c>
       <c r="L128">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="M128">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="N128">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O128">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P128" t="b">
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>970</v>
+        <v>634</v>
       </c>
     </row>
     <row r="129" spans="10:17">
       <c r="J129" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K129">
-        <v>0.08920863309352518</v>
+        <v>0.08776844070961717</v>
       </c>
       <c r="L129">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="M129">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N129">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O129">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P129" t="b">
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>633</v>
+        <v>977</v>
       </c>
     </row>
     <row r="130" spans="10:17">
       <c r="J130" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K130">
-        <v>0.08163265306122448</v>
+        <v>0.08118081180811808</v>
       </c>
       <c r="L130">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="M130">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N130">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O130">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q130">
-        <v>180</v>
+        <v>498</v>
       </c>
     </row>
     <row r="131" spans="10:17">
       <c r="J131" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K131">
-        <v>0.07393715341959335</v>
+        <v>0.07749077490774908</v>
       </c>
       <c r="L131">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M131">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N131">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O131">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P131" t="b">
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>501</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132" spans="10:17">
       <c r="J132" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K132">
-        <v>0.07112970711297072</v>
+        <v>0.07129094412331406</v>
       </c>
       <c r="L132">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M132">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N132">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O132">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q132">
-        <v>222</v>
+        <v>482</v>
       </c>
     </row>
     <row r="133" spans="10:17">
       <c r="J133" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K133">
-        <v>0.06852791878172589</v>
+        <v>0.06694560669456066</v>
       </c>
       <c r="L133">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M133">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N133">
         <v>1</v>
@@ -4573,137 +4552,189 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>367</v>
+        <v>223</v>
       </c>
     </row>
     <row r="134" spans="10:17">
       <c r="J134" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K134">
-        <v>0.0671785028790787</v>
+        <v>0.06615776081424936</v>
       </c>
       <c r="L134">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M134">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N134">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O134">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P134" t="b">
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>486</v>
+        <v>367</v>
       </c>
     </row>
     <row r="135" spans="10:17">
       <c r="J135" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K135">
-        <v>0.05609756097560976</v>
+        <v>0.06336805555555555</v>
       </c>
       <c r="L135">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="M135">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="N135">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O135">
-        <v>0.15</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P135" t="b">
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>387</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="136" spans="10:17">
       <c r="J136" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K136">
-        <v>0.05555555555555555</v>
+        <v>0.06295399515738499</v>
       </c>
       <c r="L136">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M136">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N136">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="O136">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P136" t="b">
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>340</v>
+        <v>387</v>
       </c>
     </row>
     <row r="137" spans="10:17">
       <c r="J137" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K137">
-        <v>0.05454545454545454</v>
+        <v>0.0576271186440678</v>
       </c>
       <c r="L137">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="M137">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="N137">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O137">
-        <v>0.03000000000000003</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P137" t="b">
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>1092</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138" spans="10:17">
       <c r="J138" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K138">
+        <v>0.05509641873278237</v>
+      </c>
+      <c r="L138">
+        <v>20</v>
+      </c>
+      <c r="M138">
+        <v>22</v>
+      </c>
+      <c r="N138">
+        <v>0.91</v>
+      </c>
+      <c r="O138">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P138" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q138">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="139" spans="10:17">
+      <c r="J139" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K138">
-        <v>0.03425559947299078</v>
-      </c>
-      <c r="L138">
-        <v>26</v>
-      </c>
-      <c r="M138">
-        <v>34</v>
-      </c>
-      <c r="N138">
-        <v>0.76</v>
-      </c>
-      <c r="O138">
-        <v>0.24</v>
-      </c>
-      <c r="P138" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q138">
-        <v>733</v>
+      <c r="K139">
+        <v>0.04644808743169399</v>
+      </c>
+      <c r="L139">
+        <v>17</v>
+      </c>
+      <c r="M139">
+        <v>22</v>
+      </c>
+      <c r="N139">
+        <v>0.77</v>
+      </c>
+      <c r="O139">
+        <v>0.23</v>
+      </c>
+      <c r="P139" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q139">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="140" spans="10:17">
+      <c r="J140" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K140">
+        <v>0.03815789473684211</v>
+      </c>
+      <c r="L140">
+        <v>29</v>
+      </c>
+      <c r="M140">
+        <v>36</v>
+      </c>
+      <c r="N140">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O140">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P140" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q140">
+        <v>731</v>
       </c>
     </row>
   </sheetData>
